--- a/dictionaries/chemicals/1_0_trimester_rep.xlsx
+++ b/dictionaries/chemicals/1_0_trimester_rep.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mslofstra/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mslofstra/git/ds-beta-dictionaries/dictionaries/chemicals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEAABDA-372F-7640-A6CB-6284CEEB5735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C90F586-693E-D74A-B1CE-6BF28894AB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17820" yWindow="-18340" windowWidth="29680" windowHeight="18320" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="102">
   <si>
     <t>name</t>
   </si>
@@ -332,192 +332,6 @@
   </si>
   <si>
     <t>isMissing</t>
-  </si>
-  <si>
-    <t>m_mep_lod_t2</t>
-  </si>
-  <si>
-    <t>m_mep_lod_t3</t>
-  </si>
-  <si>
-    <t>m_mep_lod_t1</t>
-  </si>
-  <si>
-    <t>m_mep_raw_t2</t>
-  </si>
-  <si>
-    <t>m_mep_raw_t3</t>
-  </si>
-  <si>
-    <t>m_mep_raw_t1</t>
-  </si>
-  <si>
-    <t>m_mibp_lod_t2</t>
-  </si>
-  <si>
-    <t>m_mibp_lod_t3</t>
-  </si>
-  <si>
-    <t>m_mibp_lod_t1</t>
-  </si>
-  <si>
-    <t>m_mibp_raw_t2</t>
-  </si>
-  <si>
-    <t>m_mibp_raw_t3</t>
-  </si>
-  <si>
-    <t>m_mibp_raw_t1</t>
-  </si>
-  <si>
-    <t>m_mnbp_lod_t2</t>
-  </si>
-  <si>
-    <t>m_mnbp_lod_t3</t>
-  </si>
-  <si>
-    <t>m_mnbp_lod_t1</t>
-  </si>
-  <si>
-    <t>m_mnbp_raw_t2</t>
-  </si>
-  <si>
-    <t>m_mnbp_raw_t3</t>
-  </si>
-  <si>
-    <t>m_mnbp_raw_t1</t>
-  </si>
-  <si>
-    <t>m_mbzp_lod_t2</t>
-  </si>
-  <si>
-    <t>m_mbzp_lod_t3</t>
-  </si>
-  <si>
-    <t>m_mbzp_lod_t1</t>
-  </si>
-  <si>
-    <t>m_mbzp_raw_t2</t>
-  </si>
-  <si>
-    <t>m_mbzp_raw_t3</t>
-  </si>
-  <si>
-    <t>m_mbzp_raw_t1</t>
-  </si>
-  <si>
-    <t>m_mehp_lod_t2</t>
-  </si>
-  <si>
-    <t>m_mehp_lod_t3</t>
-  </si>
-  <si>
-    <t>m_mehp_lod_t1</t>
-  </si>
-  <si>
-    <t>m_mehp_raw_t2</t>
-  </si>
-  <si>
-    <t>m_mehp_raw_t3</t>
-  </si>
-  <si>
-    <t>m_mehp_raw_t1</t>
-  </si>
-  <si>
-    <t>m_mehhp_lod_t2</t>
-  </si>
-  <si>
-    <t>m_mehhp_lod_t3</t>
-  </si>
-  <si>
-    <t>m_mehhp_lod_t1</t>
-  </si>
-  <si>
-    <t>m_mehhp_raw_t2</t>
-  </si>
-  <si>
-    <t>m_mehhp_raw_t3</t>
-  </si>
-  <si>
-    <t>m_mehhp_raw_t1</t>
-  </si>
-  <si>
-    <t>m_meohp_lod_t2</t>
-  </si>
-  <si>
-    <t>m_meohp_lod_t3</t>
-  </si>
-  <si>
-    <t>m_meohp_lod_t1</t>
-  </si>
-  <si>
-    <t>m_meohp_raw_t2</t>
-  </si>
-  <si>
-    <t>m_meohp_raw_t3</t>
-  </si>
-  <si>
-    <t>m_meohp_raw_t1</t>
-  </si>
-  <si>
-    <t>m_mecpp_lod_t2</t>
-  </si>
-  <si>
-    <t>m_mecpp_lod_t3</t>
-  </si>
-  <si>
-    <t>m_mecpp_lod_t1</t>
-  </si>
-  <si>
-    <t>m_mecpp_raw_t2</t>
-  </si>
-  <si>
-    <t>m_mecpp_raw_t3</t>
-  </si>
-  <si>
-    <t>m_mecpp_raw_t1</t>
-  </si>
-  <si>
-    <t>m_ohminp_lod_t2</t>
-  </si>
-  <si>
-    <t>m_ohminp_lod_t3</t>
-  </si>
-  <si>
-    <t>m_ohminp_lod_t1</t>
-  </si>
-  <si>
-    <t>m_ohminp_raw_t2</t>
-  </si>
-  <si>
-    <t>m_ohminp_raw_t3</t>
-  </si>
-  <si>
-    <t>m_ohminp_raw_t1</t>
-  </si>
-  <si>
-    <t>m_oxominp_lod_t2</t>
-  </si>
-  <si>
-    <t>m_oxominp_lod_t3</t>
-  </si>
-  <si>
-    <t>m_oxominp_lod_t1</t>
-  </si>
-  <si>
-    <t>m_oxominp_raw_t2</t>
-  </si>
-  <si>
-    <t>m_oxominp_raw_t3</t>
-  </si>
-  <si>
-    <t>m_oxominp_raw_t1</t>
-  </si>
-  <si>
-    <t>m_mep_raw</t>
-  </si>
-  <si>
-    <t>m_mibp_lod</t>
   </si>
 </sst>
 </file>
@@ -2035,7 +1849,7 @@
   <dimension ref="A1:AMJ169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2061,852 +1875,249 @@
       <c r="AMJ1"/>
     </row>
     <row r="2" spans="1:1024" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6">
-        <v>2</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>102</v>
-      </c>
+      <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:1024" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="6">
-        <v>3</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>103</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:1024" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:1024" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>105</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:1024" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:1024" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>107</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:1024" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>108</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:1024" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>109</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:1024" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:1024" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>111</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:1024" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>112</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:1024" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:1024" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>114</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:1024" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1">
-        <v>3</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>115</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="1">
-        <v>3</v>
-      </c>
-      <c r="C18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="1">
-        <v>3</v>
-      </c>
-      <c r="C21" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
-      <c r="C23" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="1">
-        <v>3</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="C26" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="1">
-        <v>3</v>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2</v>
-      </c>
-      <c r="C29" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="1">
-        <v>3</v>
-      </c>
-      <c r="C30" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" t="b">
-        <v>0</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2</v>
-      </c>
-      <c r="C32" t="b">
-        <v>0</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="1">
-        <v>3</v>
-      </c>
-      <c r="C33" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" t="b">
-        <v>0</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="1">
-        <v>2</v>
-      </c>
-      <c r="C35" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="1">
-        <v>3</v>
-      </c>
-      <c r="C36" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2</v>
-      </c>
-      <c r="C38" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="1">
-        <v>3</v>
-      </c>
-      <c r="C39" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" t="b">
-        <v>0</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2</v>
-      </c>
-      <c r="C41" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1">
-        <v>3</v>
-      </c>
-      <c r="C42" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="1">
-        <v>2</v>
-      </c>
-      <c r="C44" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="1">
-        <v>3</v>
-      </c>
-      <c r="C45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="1">
-        <v>1</v>
-      </c>
-      <c r="C46" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="1">
-        <v>2</v>
-      </c>
-      <c r="C47" t="b">
-        <v>0</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="1">
-        <v>3</v>
-      </c>
-      <c r="C48" t="b">
-        <v>0</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="1">
-        <v>1</v>
-      </c>
-      <c r="C49" t="b">
-        <v>0</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2</v>
-      </c>
-      <c r="C50" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="1">
-        <v>3</v>
-      </c>
-      <c r="C51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="1">
-        <v>1</v>
-      </c>
-      <c r="C52" t="b">
-        <v>0</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1">
-        <v>2</v>
-      </c>
-      <c r="C53" t="b">
-        <v>0</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="1">
-        <v>3</v>
-      </c>
-      <c r="C54" t="b">
-        <v>0</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="1">
-        <v>1</v>
-      </c>
-      <c r="C55" t="b">
-        <v>0</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="1">
-        <v>2</v>
-      </c>
-      <c r="C56" t="b">
-        <v>0</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="1">
-        <v>3</v>
-      </c>
-      <c r="C57" t="b">
-        <v>0</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="1">
-        <v>1</v>
-      </c>
-      <c r="C58" t="b">
-        <v>0</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="1">
-        <v>2</v>
-      </c>
-      <c r="C59" t="b">
-        <v>0</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="1">
-        <v>3</v>
-      </c>
-      <c r="C60" t="b">
-        <v>0</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="1">
-        <v>1</v>
-      </c>
-      <c r="C61" t="b">
-        <v>0</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="2"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="2"/>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="2"/>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="2"/>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="2"/>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="2"/>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="2"/>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="2"/>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="2"/>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="2"/>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
